--- a/example_data/EMA/label_corrected/eliquis-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/eliquis-epar-product-information_en.xlsx
@@ -1504,7 +1504,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric</t>
+          <t>populations - geriatric || renal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric || warnings</t>
+          <t>populations - geriatric || renal || warnings</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
